--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam4-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Icam4-Itga2b.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>5.271646666666667</v>
+        <v>0.2564746666666666</v>
       </c>
       <c r="H2">
-        <v>15.81494</v>
+        <v>0.7694239999999999</v>
       </c>
       <c r="I2">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="J2">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.104136666666667</v>
+        <v>0.3883076666666667</v>
       </c>
       <c r="N2">
-        <v>3.31241</v>
+        <v>1.164923</v>
       </c>
       <c r="O2">
-        <v>0.2772362398998524</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="P2">
-        <v>0.2772362398998525</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="Q2">
-        <v>5.820618378377778</v>
+        <v>0.09959107937244444</v>
       </c>
       <c r="R2">
-        <v>52.3855654054</v>
+        <v>0.8963197143519999</v>
       </c>
       <c r="S2">
-        <v>0.2274369980985219</v>
+        <v>0.02160953546698244</v>
       </c>
       <c r="T2">
-        <v>0.2274369980985219</v>
+        <v>0.02160953546698244</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>5.271646666666667</v>
+        <v>0.2564746666666666</v>
       </c>
       <c r="H3">
-        <v>15.81494</v>
+        <v>0.7694239999999999</v>
       </c>
       <c r="I3">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="J3">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>6.692959999999999</v>
       </c>
       <c r="O3">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="P3">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="Q3">
-        <v>11.76097342471111</v>
+        <v>0.572191561671111</v>
       </c>
       <c r="R3">
-        <v>105.8487608224</v>
+        <v>5.149724055039998</v>
       </c>
       <c r="S3">
-        <v>0.4595526311034815</v>
+        <v>0.1241556364661825</v>
       </c>
       <c r="T3">
-        <v>0.4595526311034815</v>
+        <v>0.1241556364661826</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>5.271646666666667</v>
+        <v>0.2564746666666666</v>
       </c>
       <c r="H4">
-        <v>15.81494</v>
+        <v>0.7694239999999999</v>
       </c>
       <c r="I4">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="J4">
-        <v>0.8203725392491262</v>
+        <v>0.1818007399394835</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>1.942599</v>
       </c>
       <c r="O4">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="P4">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="Q4">
-        <v>3.413565181006667</v>
+        <v>0.1660758103306667</v>
       </c>
       <c r="R4">
-        <v>30.72208662906</v>
+        <v>1.494682292976</v>
       </c>
       <c r="S4">
-        <v>0.1333829100471229</v>
+        <v>0.03603556800631854</v>
       </c>
       <c r="T4">
-        <v>0.1333829100471229</v>
+        <v>0.03603556800631855</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>3.256445</v>
       </c>
       <c r="I5">
-        <v>0.1689224273740603</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="J5">
-        <v>0.1689224273740602</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.104136666666667</v>
+        <v>0.3883076666666667</v>
       </c>
       <c r="N5">
-        <v>3.31241</v>
+        <v>1.164923</v>
       </c>
       <c r="O5">
-        <v>0.2772362398998524</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="P5">
-        <v>0.2772362398998525</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="Q5">
-        <v>1.198520109161111</v>
+        <v>0.4215008531927778</v>
       </c>
       <c r="R5">
-        <v>10.78668098245</v>
+        <v>3.793507678735</v>
       </c>
       <c r="S5">
-        <v>0.04683141859994037</v>
+        <v>0.09145836849874404</v>
       </c>
       <c r="T5">
-        <v>0.04683141859994037</v>
+        <v>0.09145836849874404</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.256445</v>
       </c>
       <c r="I6">
-        <v>0.1689224273740603</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="J6">
-        <v>0.1689224273740602</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>6.692959999999999</v>
       </c>
       <c r="O6">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="P6">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="Q6">
         <v>2.421695125244444</v>
@@ -818,10 +818,10 @@
         <v>21.7952561272</v>
       </c>
       <c r="S6">
-        <v>0.09462621216354768</v>
+        <v>0.5254658050595223</v>
       </c>
       <c r="T6">
-        <v>0.09462621216354765</v>
+        <v>0.5254658050595223</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.256445</v>
       </c>
       <c r="I7">
-        <v>0.1689224273740603</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="J7">
-        <v>0.1689224273740602</v>
+        <v>0.7694380609030022</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>1.942599</v>
       </c>
       <c r="O7">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="P7">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="Q7">
         <v>0.7028852000616667</v>
@@ -880,10 +880,10 @@
         <v>6.325966800554999</v>
       </c>
       <c r="S7">
-        <v>0.02746479661057223</v>
+        <v>0.1525138873447358</v>
       </c>
       <c r="T7">
-        <v>0.02746479661057223</v>
+        <v>0.1525138873447358</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.06878966666666665</v>
+        <v>0.06878966666666667</v>
       </c>
       <c r="H8">
         <v>0.206369</v>
       </c>
       <c r="I8">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="J8">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.104136666666667</v>
+        <v>0.3883076666666667</v>
       </c>
       <c r="N8">
-        <v>3.31241</v>
+        <v>1.164923</v>
       </c>
       <c r="O8">
-        <v>0.2772362398998524</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="P8">
-        <v>0.2772362398998525</v>
+        <v>0.1188638477168776</v>
       </c>
       <c r="Q8">
-        <v>0.07595319325444443</v>
+        <v>0.02671155495411111</v>
       </c>
       <c r="R8">
-        <v>0.6835787392899999</v>
+        <v>0.240403994587</v>
       </c>
       <c r="S8">
-        <v>0.002967823201390195</v>
+        <v>0.00579594375115112</v>
       </c>
       <c r="T8">
-        <v>0.002967823201390195</v>
+        <v>0.00579594375115112</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.06878966666666665</v>
+        <v>0.06878966666666667</v>
       </c>
       <c r="H9">
         <v>0.206369</v>
       </c>
       <c r="I9">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="J9">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>6.692959999999999</v>
       </c>
       <c r="O9">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="P9">
-        <v>0.5601755411317187</v>
+        <v>0.6829215134520935</v>
       </c>
       <c r="Q9">
-        <v>0.1534688291377777</v>
+        <v>0.1534688291377778</v>
       </c>
       <c r="R9">
         <v>1.38121946224</v>
       </c>
       <c r="S9">
-        <v>0.005996697864689613</v>
+        <v>0.03330007192638861</v>
       </c>
       <c r="T9">
-        <v>0.005996697864689613</v>
+        <v>0.03330007192638861</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.06878966666666665</v>
+        <v>0.06878966666666667</v>
       </c>
       <c r="H10">
         <v>0.206369</v>
       </c>
       <c r="I10">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="J10">
-        <v>0.0107050333768135</v>
+        <v>0.0487611991575143</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>1.942599</v>
       </c>
       <c r="O10">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="P10">
-        <v>0.1625882189684289</v>
+        <v>0.1982146388310289</v>
       </c>
       <c r="Q10">
-        <v>0.04454357922566666</v>
+        <v>0.04454357922566667</v>
       </c>
       <c r="R10">
-        <v>0.4008922130309999</v>
+        <v>0.400892213031</v>
       </c>
       <c r="S10">
-        <v>0.001740512310733693</v>
+        <v>0.00966518347997457</v>
       </c>
       <c r="T10">
-        <v>0.001740512310733693</v>
+        <v>0.00966518347997457</v>
       </c>
     </row>
   </sheetData>
